--- a/medicine/Mort/Peine_de_mort_au_Missouri/Peine_de_mort_au_Missouri.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Missouri/Peine_de_mort_au_Missouri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Missouri, la pendaison fut utilisée comme méthode d'exécution jusqu'en 1937[1], date à laquelle la chambre à gaz fut adoptée[2]. En 1988, l'injection létale se substitua à cette dernière méthode[3], les condamnés ont toutefois le choix entre l'injection et la chambre à gaz.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Missouri, la pendaison fut utilisée comme méthode d'exécution jusqu'en 1937, date à laquelle la chambre à gaz fut adoptée. En 1988, l'injection létale se substitua à cette dernière méthode, les condamnés ont toutefois le choix entre l'injection et la chambre à gaz.
 Les dates d'exécutions sont fixées par la Cour suprême de l'État et le gouverneur reçoit l'avis non injonctif d'une commission avant de décider de gracier ou non une condamnation à mort. C'est dans cet État qu'avait eu lieu l'affaire Roper v. Simmons qui conduisit en 2005 à l'interdiction de la peine de mort pour les moins de 18 ans par la Cour suprême des États-Unis. L'État s'apprêtait, sous l'impulsion de son gouverneur, à établir la peine de mort pour les violeurs d'enfants, peu avant que cela ne soit également interdit par la Justice fédérale (Kennedy v. Louisiana).
-Les exécutions ont été suspendues en 2005 en raison des problèmes dus aux exécutions par injection létale, un jugement favorable à l'administration pénitentiaire a finalement été rendu, mais aucune exécution n'a encore été pratiquée car il avait été fait appel de cette décision devant la Cour suprême du Missouri, qui a finalement confirmé la décision par quatre voix contre trois. L'administration pénitentiaire a aussitôt fait parvenir un communiqué de presse où elle se dit prête à procéder aux exécutions « dès à présent ». Le parquet avait déjà demandé l'exécution d'une douzaine de condamnés, la Cour a commencé à fixer des dates d'exécution[4]. Le 20 mai 2009, le hiatus s'est finalement terminé par l'exécution de Dennis Skillicorn, condamné pour un meurtre dont il s'est rendu complice alors qu'il était en libération conditionnelle pour deux autres meurtres[5].
+Les exécutions ont été suspendues en 2005 en raison des problèmes dus aux exécutions par injection létale, un jugement favorable à l'administration pénitentiaire a finalement été rendu, mais aucune exécution n'a encore été pratiquée car il avait été fait appel de cette décision devant la Cour suprême du Missouri, qui a finalement confirmé la décision par quatre voix contre trois. L'administration pénitentiaire a aussitôt fait parvenir un communiqué de presse où elle se dit prête à procéder aux exécutions « dès à présent ». Le parquet avait déjà demandé l'exécution d'une douzaine de condamnés, la Cour a commencé à fixer des dates d'exécution. Le 20 mai 2009, le hiatus s'est finalement terminé par l'exécution de Dennis Skillicorn, condamné pour un meurtre dont il s'est rendu complice alors qu'il était en libération conditionnelle pour deux autres meurtres.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Exécutions depuis 1975</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Bonne-Terre au Eastern Reception, Diagnostic and Correctional Center.
 En août 2023 le couloir de la mort du Missouri compte 15 condamnés à morts. Depuis 1975 huit condamnés ont été graciés dans le Missouri.
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
